--- a/results_final/sigma_HH.xlsx
+++ b/results_final/sigma_HH.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3207733656856278</v>
+        <v>0.3207979536500412</v>
       </c>
       <c r="E2">
-        <v>0.2738532818468939</v>
+        <v>0.2739145813612485</v>
       </c>
       <c r="F2">
-        <v>0.2411612024436535</v>
+        <v>0.2412663096576654</v>
       </c>
       <c r="G2">
-        <v>0.2177112100792116</v>
+        <v>0.2178651928003373</v>
       </c>
       <c r="H2">
-        <v>0.2004882745820521</v>
+        <v>0.2006954075079118</v>
       </c>
       <c r="I2">
-        <v>0.1875912373930752</v>
+        <v>0.1878555012893986</v>
       </c>
       <c r="J2">
-        <v>0.1777770576090808</v>
+        <v>0.1781023210977462</v>
       </c>
       <c r="K2">
-        <v>0.1702070823425792</v>
+        <v>0.1705971455007851</v>
       </c>
       <c r="L2">
-        <v>0.1642999370442085</v>
+        <v>0.1647585167412267</v>
       </c>
       <c r="M2">
-        <v>0.1596430825311631</v>
+        <v>0.1601737762608489</v>
       </c>
       <c r="N2">
-        <v>0.1559378767428575</v>
+        <v>0.1565441220959757</v>
       </c>
       <c r="O2">
-        <v>0.1529644222712882</v>
+        <v>0.1536494599092094</v>
       </c>
       <c r="P2">
-        <v>0.1505584582748035</v>
+        <v>0.1513253017115364</v>
       </c>
       <c r="Q2">
-        <v>0.1485957909191455</v>
+        <v>0.1494472041232855</v>
       </c>
       <c r="R2">
-        <v>0.1469815647665163</v>
+        <v>0.147920047428864</v>
       </c>
       <c r="S2">
-        <v>0.1456427178024052</v>
+        <v>0.1466704975404749</v>
       </c>
       <c r="T2">
-        <v>0.1445225771858512</v>
+        <v>0.1456416077045824</v>
       </c>
       <c r="U2">
-        <v>0.1435769245318295</v>
+        <v>0.1447888886890117</v>
       </c>
       <c r="V2">
-        <v>0.1427710895102497</v>
+        <v>0.1440774062665083</v>
       </c>
       <c r="W2">
-        <v>0.1420777758311692</v>
+        <v>0.1434796101512955</v>
       </c>
       <c r="X2">
-        <v>0.1414754173039396</v>
+        <v>0.1429736921903133</v>
       </c>
       <c r="Y2">
-        <v>0.1409469231373916</v>
+        <v>0.1425423330993645</v>
       </c>
       <c r="Z2">
-        <v>0.140478712766175</v>
+        <v>0.142171738150458</v>
       </c>
       <c r="AA2">
-        <v>0.1400599684781711</v>
+        <v>0.141850890197897</v>
       </c>
       <c r="AB2">
-        <v>0.1396820534981049</v>
+        <v>0.1415709677987739</v>
       </c>
       <c r="AC2">
-        <v>0.1393380568218835</v>
+        <v>0.1413248898093573</v>
       </c>
       <c r="AD2">
-        <v>0.1390224358447606</v>
+        <v>0.1411069575737231</v>
       </c>
       <c r="AE2">
-        <v>0.1387307348954608</v>
+        <v>0.1409125728770465</v>
       </c>
       <c r="AF2">
-        <v>0.1384593629831067</v>
+        <v>0.1407380150189284</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -617,91 +617,91 @@
         <v>0.260088410370062</v>
       </c>
       <c r="D3">
-        <v>0.2119778222680584</v>
+        <v>0.2120745226227484</v>
       </c>
       <c r="E3">
-        <v>0.1793051914168923</v>
+        <v>0.1795441394904788</v>
       </c>
       <c r="F3">
-        <v>0.1562610377241716</v>
+        <v>0.1566667099417476</v>
       </c>
       <c r="G3">
-        <v>0.1394827141960644</v>
+        <v>0.1400707487822319</v>
       </c>
       <c r="H3">
-        <v>0.1269304001628515</v>
+        <v>0.1277126895126437</v>
       </c>
       <c r="I3">
-        <v>0.1173156854604263</v>
+        <v>0.1183024800760639</v>
       </c>
       <c r="J3">
-        <v>0.1097958759826006</v>
+        <v>0.110996601040067</v>
       </c>
       <c r="K3">
-        <v>0.1038029402775687</v>
+        <v>0.1052264543603629</v>
       </c>
       <c r="L3">
-        <v>0.09894390304516346</v>
+        <v>0.1005985232241979</v>
       </c>
       <c r="M3">
-        <v>0.09494073958290436</v>
+        <v>0.09683418011320266</v>
       </c>
       <c r="N3">
-        <v>0.09159292596857679</v>
+        <v>0.09373221757959684</v>
       </c>
       <c r="O3">
-        <v>0.08875342087475857</v>
+        <v>0.09114483997924959</v>
       </c>
       <c r="P3">
-        <v>0.0863128536107155</v>
+        <v>0.08896187269032066</v>
       </c>
       <c r="Q3">
-        <v>0.08418886570516664</v>
+        <v>0.08710012740524416</v>
       </c>
       <c r="R3">
-        <v>0.08231877179949279</v>
+        <v>0.08549608515303389</v>
       </c>
       <c r="S3">
-        <v>0.08065440883645002</v>
+        <v>0.08410076426982931</v>
       </c>
       <c r="T3">
-        <v>0.07915845919065113</v>
+        <v>0.08287605841003108</v>
       </c>
       <c r="U3">
-        <v>0.07780178632496505</v>
+        <v>0.08179208325269526</v>
       </c>
       <c r="V3">
-        <v>0.07656147861348268</v>
+        <v>0.08082522792083403</v>
       </c>
       <c r="W3">
-        <v>0.07541939658394119</v>
+        <v>0.07995670687336633</v>
       </c>
       <c r="X3">
-        <v>0.074361083291748</v>
+        <v>0.0791714725193732</v>
       </c>
       <c r="Y3">
-        <v>0.07337494005229701</v>
+        <v>0.07845739129479744</v>
       </c>
       <c r="Z3">
-        <v>0.07245159831203767</v>
+        <v>0.07780461444316376</v>
       </c>
       <c r="AA3">
-        <v>0.07158343794872191</v>
+        <v>0.07720509418733899</v>
       </c>
       <c r="AB3">
-        <v>0.0707642158396779</v>
+        <v>0.07665220946078388</v>
       </c>
       <c r="AC3">
-        <v>0.06998877808906313</v>
+        <v>0.0761404748550846</v>
       </c>
       <c r="AD3">
-        <v>0.06925283613457142</v>
+        <v>0.07566531321260571</v>
       </c>
       <c r="AE3">
-        <v>0.06855279189988345</v>
+        <v>0.07522287718913254</v>
       </c>
       <c r="AF3">
-        <v>0.06788560078242153</v>
+        <v>0.07480990869283133</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2931650379816476</v>
+        <v>0.2932788364765658</v>
       </c>
       <c r="E4">
-        <v>0.2757332000549629</v>
+        <v>0.2760458498017431</v>
       </c>
       <c r="F4">
-        <v>0.2617234151304347</v>
+        <v>0.2623014907474709</v>
       </c>
       <c r="G4">
-        <v>0.2502752143530318</v>
+        <v>0.2511727785733686</v>
       </c>
       <c r="H4">
-        <v>0.2407740780869508</v>
+        <v>0.2420362366064859</v>
       </c>
       <c r="I4">
-        <v>0.2327731928119562</v>
+        <v>0.2344382672437295</v>
       </c>
       <c r="J4">
-        <v>0.2259426329791405</v>
+        <v>0.2280435290187292</v>
       </c>
       <c r="K4">
-        <v>0.2200355219009868</v>
+        <v>0.2226006236493562</v>
       </c>
       <c r="L4">
-        <v>0.214864985980502</v>
+        <v>0.2179187693735295</v>
       </c>
       <c r="M4">
-        <v>0.2102881390267319</v>
+        <v>0.2138516179969801</v>
       </c>
       <c r="N4">
-        <v>0.2061947492836056</v>
+        <v>0.2102858217766449</v>
       </c>
       <c r="O4">
-        <v>0.2024990905516882</v>
+        <v>0.2071328238800051</v>
       </c>
       <c r="P4">
-        <v>0.1991339996339866</v>
+        <v>0.2043228781063448</v>
       </c>
       <c r="Q4">
-        <v>0.1960464890481142</v>
+        <v>0.2018006369102957</v>
       </c>
       <c r="R4">
-        <v>0.1931944731580774</v>
+        <v>0.1995218600066104</v>
       </c>
       <c r="S4">
-        <v>0.1905443024975579</v>
+        <v>0.1974509349104059</v>
       </c>
       <c r="T4">
-        <v>0.1880688919477356</v>
+        <v>0.1955589931551369</v>
       </c>
       <c r="U4">
-        <v>0.1857462899810025</v>
+        <v>0.193822468382275</v>
       </c>
       <c r="V4">
-        <v>0.1835585785635769</v>
+        <v>0.1922219854127054</v>
       </c>
       <c r="W4">
-        <v>0.1814910229558567</v>
+        <v>0.1907414993607686</v>
       </c>
       <c r="X4">
-        <v>0.1795314116917034</v>
+        <v>0.1893676250580421</v>
       </c>
       <c r="Y4">
-        <v>0.1776695421554761</v>
+        <v>0.1880891122699346</v>
       </c>
       <c r="Z4">
-        <v>0.1758968181991596</v>
+        <v>0.1868964332398902</v>
       </c>
       <c r="AA4">
-        <v>0.1742059343578763</v>
+        <v>0.1857814572122476</v>
       </c>
       <c r="AB4">
-        <v>0.1725906272557227</v>
+        <v>0.1847371926046091</v>
       </c>
       <c r="AC4">
-        <v>0.17104547931796</v>
+        <v>0.1837575820050026</v>
       </c>
       <c r="AD4">
-        <v>0.1695657633231285</v>
+        <v>0.1828373385660047</v>
       </c>
       <c r="AE4">
-        <v>0.1681473189269818</v>
+        <v>0.1819718149472535</v>
       </c>
       <c r="AF4">
-        <v>0.1667864542765949</v>
+        <v>0.1811568979280021</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2947975418203528</v>
+        <v>0.2948299891030753</v>
       </c>
       <c r="E5">
-        <v>0.1999764060707902</v>
+        <v>0.2000406840143437</v>
       </c>
       <c r="F5">
-        <v>0.1464739535120523</v>
+        <v>0.1465656282508537</v>
       </c>
       <c r="G5">
-        <v>0.1140814182771629</v>
+        <v>0.1141972949421917</v>
       </c>
       <c r="H5">
-        <v>0.0933294774820079</v>
+        <v>0.09346796151460593</v>
       </c>
       <c r="I5">
-        <v>0.07941692719321201</v>
+        <v>0.07957761931858434</v>
       </c>
       <c r="J5">
-        <v>0.06974130165950575</v>
+        <v>0.0699245945758262</v>
       </c>
       <c r="K5">
-        <v>0.06280921287733374</v>
+        <v>0.06301599851492322</v>
       </c>
       <c r="L5">
-        <v>0.05772069705195478</v>
+        <v>0.05795216768969185</v>
       </c>
       <c r="M5">
-        <v>0.05390999201327716</v>
+        <v>0.05416750575301073</v>
       </c>
       <c r="N5">
-        <v>0.05100817922417076</v>
+        <v>0.05129316759357513</v>
       </c>
       <c r="O5">
-        <v>0.0487669557850166</v>
+        <v>0.04908085911933111</v>
       </c>
       <c r="P5">
-        <v>0.0470145632827219</v>
+        <v>0.04735878500339803</v>
       </c>
       <c r="Q5">
-        <v>0.04562935940545697</v>
+        <v>0.04600523368477769</v>
       </c>
       <c r="R5">
-        <v>0.04452343927180668</v>
+        <v>0.04493220856160147</v>
       </c>
       <c r="S5">
-        <v>0.04363217763229635</v>
+        <v>0.04407497769297981</v>
       </c>
       <c r="T5">
-        <v>0.04290736770744338</v>
+        <v>0.0433852184535277</v>
       </c>
       <c r="U5">
-        <v>0.04231260678243322</v>
+        <v>0.04282640767283816</v>
       </c>
       <c r="V5">
-        <v>0.04182012199684548</v>
+        <v>0.04237065096349629</v>
       </c>
       <c r="W5">
-        <v>0.04140854169022661</v>
+        <v>0.04199645678371761</v>
       </c>
       <c r="X5">
-        <v>0.04106130154835826</v>
+        <v>0.04168714462089068</v>
       </c>
       <c r="Y5">
-        <v>0.04076548586176199</v>
+        <v>0.04142968772361545</v>
       </c>
       <c r="Z5">
-        <v>0.04051097281673462</v>
+        <v>0.04121385940212485</v>
       </c>
       <c r="AA5">
-        <v>0.04028979602111275</v>
+        <v>0.04103159518641188</v>
       </c>
       <c r="AB5">
-        <v>0.04009566232036462</v>
+        <v>0.04087651097396901</v>
       </c>
       <c r="AC5">
-        <v>0.03992358422869001</v>
+        <v>0.04074353555803024</v>
       </c>
       <c r="AD5">
-        <v>0.03976959750415687</v>
+        <v>0.0406286281219302</v>
       </c>
       <c r="AE5">
-        <v>0.0396305426953318</v>
+        <v>0.04052855957453286</v>
       </c>
       <c r="AF5">
-        <v>0.03950389522641806</v>
+        <v>0.04044074233283578</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.793905791126986</v>
+        <v>0.7939057911269859</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821549</v>
+        <v>0.4617406340821548</v>
       </c>
       <c r="D6">
-        <v>0.298590746652597</v>
+        <v>0.2986736703350578</v>
       </c>
       <c r="E6">
-        <v>0.2101960961291666</v>
+        <v>0.2103665965727851</v>
       </c>
       <c r="F6">
-        <v>0.1583794450293214</v>
+        <v>0.1586296560365132</v>
       </c>
       <c r="G6">
-        <v>0.1260151085668093</v>
+        <v>0.1263382933441205</v>
       </c>
       <c r="H6">
-        <v>0.1047355672361643</v>
+        <v>0.1051281009629376</v>
       </c>
       <c r="I6">
-        <v>0.09014698383595619</v>
+        <v>0.09060789046208448</v>
       </c>
       <c r="J6">
-        <v>0.07979633988165456</v>
+        <v>0.08032651416053993</v>
       </c>
       <c r="K6">
-        <v>0.07224040384965824</v>
+        <v>0.07284196058062464</v>
       </c>
       <c r="L6">
-        <v>0.06659084774320856</v>
+        <v>0.06726664332523946</v>
       </c>
       <c r="M6">
-        <v>0.06227916362175004</v>
+        <v>0.06303245573145495</v>
       </c>
       <c r="N6">
-        <v>0.05892905232710769</v>
+        <v>0.05976325908920149</v>
       </c>
       <c r="O6">
-        <v>0.05628408178588799</v>
+        <v>0.0572026112791483</v>
       </c>
       <c r="P6">
-        <v>0.05416506452797713</v>
+        <v>0.05517119463818453</v>
       </c>
       <c r="Q6">
-        <v>0.05244406195773443</v>
+        <v>0.05354085709911927</v>
       </c>
       <c r="R6">
-        <v>0.05102802707906352</v>
+        <v>0.05221828252115207</v>
       </c>
       <c r="S6">
-        <v>0.04984821683918844</v>
+        <v>0.05113442403399554</v>
       </c>
       <c r="T6">
-        <v>0.04885316066531738</v>
+        <v>0.05023748866154983</v>
       </c>
       <c r="U6">
-        <v>0.04800388054092607</v>
+        <v>0.04948816968882301</v>
       </c>
       <c r="V6">
-        <v>0.04727057237345825</v>
+        <v>0.04885633730476604</v>
       </c>
       <c r="W6">
-        <v>0.04663025779444602</v>
+        <v>0.04831869724485519</v>
       </c>
       <c r="X6">
-        <v>0.04606509427230059</v>
+        <v>0.04785710577503113</v>
       </c>
       <c r="Y6">
-        <v>0.04556114066436524</v>
+        <v>0.04745733852438808</v>
       </c>
       <c r="Z6">
-        <v>0.0451074435857407</v>
+        <v>0.0471081788656478</v>
       </c>
       <c r="AA6">
-        <v>0.04469535350091326</v>
+        <v>0.04680073502280673</v>
       </c>
       <c r="AB6">
-        <v>0.04431800775550684</v>
+        <v>0.0465279233547646</v>
       </c>
       <c r="AC6">
-        <v>0.04396993652815402</v>
+        <v>0.04628407398884901</v>
       </c>
       <c r="AD6">
-        <v>0.04364676034274981</v>
+        <v>0.04606462760453463</v>
       </c>
       <c r="AE6">
-        <v>0.04334495647233683</v>
+        <v>0.04586590082836285</v>
       </c>
       <c r="AF6">
-        <v>0.04306167763058413</v>
+        <v>0.04568490373917195</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8229617338256813</v>
+        <v>0.8259798718353721</v>
       </c>
       <c r="E7">
-        <v>0.7471600347824903</v>
+        <v>0.7551894514036793</v>
       </c>
       <c r="F7">
-        <v>0.6716236552850987</v>
+        <v>0.6857470774405622</v>
       </c>
       <c r="G7">
-        <v>0.5994631156480005</v>
+        <v>0.6200509122914494</v>
       </c>
       <c r="H7">
-        <v>0.5324860770387798</v>
+        <v>0.5594047594959403</v>
       </c>
       <c r="I7">
-        <v>0.471563730676661</v>
+        <v>0.5043579782134374</v>
       </c>
       <c r="J7">
-        <v>0.4169363366593423</v>
+        <v>0.4549713964805118</v>
       </c>
       <c r="K7">
-        <v>0.3684466048224928</v>
+        <v>0.4110110622224786</v>
       </c>
       <c r="L7">
-        <v>0.3257071562546017</v>
+        <v>0.3720819817142605</v>
       </c>
       <c r="M7">
-        <v>0.2882146943405174</v>
+        <v>0.337716171899083</v>
       </c>
       <c r="N7">
-        <v>0.2554241753896807</v>
+        <v>0.3074279095039548</v>
       </c>
       <c r="O7">
-        <v>0.226794483181675</v>
+        <v>0.2807464386054627</v>
       </c>
       <c r="P7">
-        <v>0.2018146285226037</v>
+        <v>0.2572337521076032</v>
       </c>
       <c r="Q7">
-        <v>0.1800171257311295</v>
+        <v>0.2364928360647682</v>
       </c>
       <c r="R7">
-        <v>0.1609832425326284</v>
+        <v>0.2181700566691132</v>
       </c>
       <c r="S7">
-        <v>0.144343328224087</v>
+        <v>0.2019541293613438</v>
       </c>
       <c r="T7">
-        <v>0.1297743431616173</v>
+        <v>0.1875732433523584</v>
       </c>
       <c r="U7">
-        <v>0.1169959557433331</v>
+        <v>0.174791327240972</v>
       </c>
       <c r="V7">
-        <v>0.1057660581738982</v>
+        <v>0.1634040521834735</v>
       </c>
       <c r="W7">
-        <v>0.09587621035161491</v>
+        <v>0.153234916781196</v>
       </c>
       <c r="X7">
-        <v>0.08714729924545027</v>
+        <v>0.1441315978953582</v>
       </c>
       <c r="Y7">
-        <v>0.07942556047307534</v>
+        <v>0.1359626527063701</v>
       </c>
       <c r="Z7">
-        <v>0.07257902217796208</v>
+        <v>0.1286145981337496</v>
       </c>
       <c r="AA7">
-        <v>0.06649437995743804</v>
+        <v>0.1219893598893114</v>
       </c>
       <c r="AB7">
-        <v>0.061074282834212</v>
+        <v>0.1160020654880114</v>
       </c>
       <c r="AC7">
-        <v>0.05623499566566152</v>
+        <v>0.1105791473277799</v>
       </c>
       <c r="AD7">
-        <v>0.05190439743193961</v>
+        <v>0.105656719516119</v>
       </c>
       <c r="AE7">
-        <v>0.04802027397758434</v>
+        <v>0.1011791929639911</v>
       </c>
       <c r="AF7">
-        <v>0.04452886574390092</v>
+        <v>0.09709809582985798</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3938355732564192</v>
+        <v>0.3949289497401572</v>
       </c>
       <c r="E8">
-        <v>0.3221431145660948</v>
+        <v>0.3247615592699052</v>
       </c>
       <c r="F8">
-        <v>0.2682912941183573</v>
+        <v>0.2725532498175065</v>
       </c>
       <c r="G8">
-        <v>0.2268361364219853</v>
+        <v>0.2327118397258582</v>
       </c>
       <c r="H8">
-        <v>0.1942390144239418</v>
+        <v>0.2016308601473779</v>
       </c>
       <c r="I8">
-        <v>0.168130827114987</v>
+        <v>0.1769132705610655</v>
       </c>
       <c r="J8">
-        <v>0.1468828922798066</v>
+        <v>0.1569224566438974</v>
       </c>
       <c r="K8">
-        <v>0.129348445284492</v>
+        <v>0.1405137131979093</v>
       </c>
       <c r="L8">
-        <v>0.1147023163300406</v>
+        <v>0.1268687817080986</v>
       </c>
       <c r="M8">
-        <v>0.1023388603652735</v>
+        <v>0.1153911037066515</v>
       </c>
       <c r="N8">
-        <v>0.09180541680353062</v>
+        <v>0.105637873182133</v>
       </c>
       <c r="O8">
-        <v>0.08275798731884024</v>
+        <v>0.09727497271474987</v>
       </c>
       <c r="P8">
-        <v>0.07493112568434872</v>
+        <v>0.0900464764812911</v>
       </c>
       <c r="Q8">
-        <v>0.06811710805356315</v>
+        <v>0.08375362586571204</v>
       </c>
       <c r="R8">
-        <v>0.06215127891008949</v>
+        <v>0.07824008646987365</v>
       </c>
       <c r="S8">
-        <v>0.0569015786672049</v>
+        <v>0.07338144585300103</v>
       </c>
       <c r="T8">
-        <v>0.05226094866166584</v>
+        <v>0.06907762210372935</v>
       </c>
       <c r="U8">
-        <v>0.04814174599132181</v>
+        <v>0.06524730128641296</v>
       </c>
       <c r="V8">
-        <v>0.04447158209732169</v>
+        <v>0.06182380934124861</v>
       </c>
       <c r="W8">
-        <v>0.04119018337980034</v>
+        <v>0.05875201176289285</v>
       </c>
       <c r="X8">
-        <v>0.03824699477624394</v>
+        <v>0.05598595892025929</v>
       </c>
       <c r="Y8">
-        <v>0.03559932995445617</v>
+        <v>0.0534870787126389</v>
       </c>
       <c r="Z8">
-        <v>0.03321092830356126</v>
+        <v>0.05122277546659663</v>
       </c>
       <c r="AA8">
-        <v>0.03105081801507636</v>
+        <v>0.0491653335218964</v>
       </c>
       <c r="AB8">
-        <v>0.02909241191548667</v>
+        <v>0.04729105161786768</v>
       </c>
       <c r="AC8">
-        <v>0.02731278207658294</v>
+        <v>0.0455795537633626</v>
       </c>
       <c r="AD8">
-        <v>0.02569207307513987</v>
+        <v>0.04401323626891183</v>
       </c>
       <c r="AE8">
-        <v>0.02421302377245667</v>
+        <v>0.04257682072922286</v>
       </c>
       <c r="AF8">
-        <v>0.02286057477576121</v>
+        <v>0.04125699011714932</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4895249003151677</v>
+        <v>0.4895249003151675</v>
       </c>
       <c r="C9">
-        <v>0.3533422012297991</v>
+        <v>0.353342201229799</v>
       </c>
       <c r="D9">
-        <v>0.2713695267761778</v>
+        <v>0.271470331164297</v>
       </c>
       <c r="E9">
-        <v>0.2190401106924381</v>
+        <v>0.2192777836248785</v>
       </c>
       <c r="F9">
-        <v>0.1839940268376541</v>
+        <v>0.1843829132946906</v>
       </c>
       <c r="G9">
-        <v>0.1595792791215285</v>
+        <v>0.1601269105490224</v>
       </c>
       <c r="H9">
-        <v>0.1420041289696877</v>
+        <v>0.1427164141284379</v>
       </c>
       <c r="I9">
-        <v>0.1289980713480782</v>
+        <v>0.129880978166388</v>
       </c>
       <c r="J9">
-        <v>0.1191425797098048</v>
+        <v>0.1202025273372719</v>
       </c>
       <c r="K9">
-        <v>0.1115183337126723</v>
+        <v>0.1127621241400804</v>
       </c>
       <c r="L9">
-        <v>0.1055103755169639</v>
+        <v>0.1069449834247479</v>
       </c>
       <c r="M9">
-        <v>0.1006959494581246</v>
+        <v>0.1023282932126693</v>
       </c>
       <c r="N9">
-        <v>0.09677751148992633</v>
+        <v>0.0986142507129671</v>
       </c>
       <c r="O9">
-        <v>0.09354136950906683</v>
+        <v>0.09558874329420775</v>
       </c>
       <c r="P9">
-        <v>0.09083137261833837</v>
+        <v>0.09309507971253844</v>
       </c>
       <c r="Q9">
-        <v>0.08853171395847008</v>
+        <v>0.09101683117757076</v>
       </c>
       <c r="R9">
-        <v>0.0865554109009541</v>
+        <v>0.08926634427881942</v>
       </c>
       <c r="S9">
-        <v>0.08483641507139619</v>
+        <v>0.08777687790184359</v>
       </c>
       <c r="T9">
-        <v>0.08332409941609158</v>
+        <v>0.08649711163811695</v>
       </c>
       <c r="U9">
-        <v>0.08197933676873531</v>
+        <v>0.08538724071012758</v>
       </c>
       <c r="V9">
-        <v>0.08077166595959623</v>
+        <v>0.08441615412118536</v>
       </c>
       <c r="W9">
-        <v>0.07967721514960456</v>
+        <v>0.0835593663951533</v>
       </c>
       <c r="X9">
-        <v>0.07867716147575773</v>
+        <v>0.08279748264411785</v>
       </c>
       <c r="Y9">
-        <v>0.07775657644110208</v>
+        <v>0.08211504699230489</v>
       </c>
       <c r="Z9">
-        <v>0.07690355259878025</v>
+        <v>0.08149967043152453</v>
       </c>
       <c r="AA9">
-        <v>0.07610853787437992</v>
+        <v>0.08094136490442938</v>
       </c>
       <c r="AB9">
-        <v>0.07536382479955114</v>
+        <v>0.08043203126782518</v>
       </c>
       <c r="AC9">
-        <v>0.07466315639317368</v>
+        <v>0.07996506318332137</v>
       </c>
       <c r="AD9">
-        <v>0.07400142058025443</v>
+        <v>0.07953503907486954</v>
       </c>
       <c r="AE9">
-        <v>0.07337441227271252</v>
+        <v>0.07913748147275472</v>
       </c>
       <c r="AF9">
-        <v>0.07277864746017296</v>
+        <v>0.07876866824155813</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704123</v>
+        <v>0.8084302649704133</v>
       </c>
       <c r="D10">
-        <v>0.6164117022594339</v>
+        <v>0.6160192251623722</v>
       </c>
       <c r="E10">
-        <v>0.4988088656532505</v>
+        <v>0.497882046564911</v>
       </c>
       <c r="F10">
-        <v>0.4232500476327437</v>
+        <v>0.4217203148408175</v>
       </c>
       <c r="G10">
-        <v>0.3729693564050393</v>
+        <v>0.3707845659284363</v>
       </c>
       <c r="H10">
-        <v>0.3387002661791994</v>
+        <v>0.3358064984210712</v>
       </c>
       <c r="I10">
-        <v>0.3150275106966005</v>
+        <v>0.3113639402305469</v>
       </c>
       <c r="J10">
-        <v>0.2986299072331955</v>
+        <v>0.2941282141084776</v>
       </c>
       <c r="K10">
-        <v>0.2873828602049363</v>
+        <v>0.281968198877469</v>
       </c>
       <c r="L10">
-        <v>0.2798759827001886</v>
+        <v>0.2734684286675256</v>
       </c>
       <c r="M10">
-        <v>0.2751419955241838</v>
+        <v>0.2676580695887692</v>
       </c>
       <c r="N10">
-        <v>0.2724982371339456</v>
+        <v>0.2638523568364269</v>
       </c>
       <c r="O10">
-        <v>0.2714506883863946</v>
+        <v>0.2615564898859424</v>
       </c>
       <c r="P10">
-        <v>0.2716339771758986</v>
+        <v>0.2604054872234238</v>
       </c>
       <c r="Q10">
-        <v>0.2727727694721189</v>
+        <v>0.260125422311508</v>
       </c>
       <c r="R10">
-        <v>0.2746562474186396</v>
+        <v>0.2605077487904091</v>
       </c>
       <c r="S10">
-        <v>0.2771208112248337</v>
+        <v>0.2613918559352058</v>
       </c>
       <c r="T10">
-        <v>0.2800380773373989</v>
+        <v>0.2626529297289412</v>
       </c>
       <c r="U10">
-        <v>0.283306367105431</v>
+        <v>0.2641933157366371</v>
       </c>
       <c r="V10">
-        <v>0.2868445468377724</v>
+        <v>0.2659362459102015</v>
       </c>
       <c r="W10">
-        <v>0.290587485530625</v>
+        <v>0.2678211961781586</v>
       </c>
       <c r="X10">
-        <v>0.2944826481934765</v>
+        <v>0.2698003927591197</v>
       </c>
       <c r="Y10">
-        <v>0.2984875019223289</v>
+        <v>0.2718361439020469</v>
       </c>
       <c r="Z10">
-        <v>0.3025675144189421</v>
+        <v>0.2738987759662972</v>
       </c>
       <c r="AA10">
-        <v>0.3066945918362156</v>
+        <v>0.2759650197093936</v>
       </c>
       <c r="AB10">
-        <v>0.3108458475764045</v>
+        <v>0.2780167372709487</v>
       </c>
       <c r="AC10">
-        <v>0.3150026239671181</v>
+        <v>0.2800399105955527</v>
       </c>
       <c r="AD10">
-        <v>0.3191497095975191</v>
+        <v>0.2820238329137613</v>
       </c>
       <c r="AE10">
-        <v>0.3232747096975639</v>
+        <v>0.2839604595637611</v>
       </c>
       <c r="AF10">
-        <v>0.3273675373369114</v>
+        <v>0.2858438849212431</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1398,94 +1398,94 @@
         <v>0.4482735300492181</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233923</v>
+        <v>0.404295948423392</v>
       </c>
       <c r="D11">
-        <v>0.3719474971455649</v>
+        <v>0.3719820368610863</v>
       </c>
       <c r="E11">
-        <v>0.3476761834863547</v>
+        <v>0.3477704665365837</v>
       </c>
       <c r="F11">
-        <v>0.3291600027325999</v>
+        <v>0.3293338074150567</v>
       </c>
       <c r="G11">
-        <v>0.314832748132935</v>
+        <v>0.3151025300828974</v>
       </c>
       <c r="H11">
-        <v>0.3036090484971926</v>
+        <v>0.3039890905172367</v>
       </c>
       <c r="I11">
-        <v>0.2947190435263364</v>
+        <v>0.2952220892518631</v>
       </c>
       <c r="J11">
-        <v>0.2876056811226242</v>
+        <v>0.2882432841161031</v>
       </c>
       <c r="K11">
-        <v>0.2818589996620848</v>
+        <v>0.2826417147170502</v>
       </c>
       <c r="L11">
-        <v>0.2771729272002237</v>
+        <v>0.2781104149582364</v>
       </c>
       <c r="M11">
-        <v>0.2733161756617367</v>
+        <v>0.2744172610288221</v>
       </c>
       <c r="N11">
-        <v>0.2701121873473716</v>
+        <v>0.2713848948545122</v>
       </c>
       <c r="O11">
-        <v>0.2674250352705004</v>
+        <v>0.2688766144675653</v>
       </c>
       <c r="P11">
-        <v>0.2651493271891519</v>
+        <v>0.2667862752402377</v>
       </c>
       <c r="Q11">
-        <v>0.2632028580541305</v>
+        <v>0.2650309431952728</v>
       </c>
       <c r="R11">
-        <v>0.2615211855459361</v>
+        <v>0.2635454730031885</v>
       </c>
       <c r="S11">
-        <v>0.2600535750425473</v>
+        <v>0.2622784558237274</v>
       </c>
       <c r="T11">
-        <v>0.2587599354572358</v>
+        <v>0.2611891577844355</v>
       </c>
       <c r="U11">
-        <v>0.257608482402656</v>
+        <v>0.2602451852357703</v>
       </c>
       <c r="V11">
-        <v>0.2565739420832984</v>
+        <v>0.2594206900662908</v>
       </c>
       <c r="W11">
-        <v>0.2556361617109124</v>
+        <v>0.2586949808693463</v>
       </c>
       <c r="X11">
-        <v>0.2547790285225551</v>
+        <v>0.2580514421005217</v>
       </c>
       <c r="Y11">
-        <v>0.2539896250217236</v>
+        <v>0.2574766889357228</v>
       </c>
       <c r="Z11">
-        <v>0.2532575663191293</v>
+        <v>0.2569599038054906</v>
       </c>
       <c r="AA11">
-        <v>0.2525744786871025</v>
+        <v>0.256492313816287</v>
       </c>
       <c r="AB11">
-        <v>0.2519335881673404</v>
+        <v>0.2560667779864834</v>
       </c>
       <c r="AC11">
-        <v>0.2513293953031394</v>
+        <v>0.2556774604444541</v>
       </c>
       <c r="AD11">
-        <v>0.250757417501627</v>
+        <v>0.2553195711579403</v>
       </c>
       <c r="AE11">
-        <v>0.2502139846538421</v>
+        <v>0.254989159873985</v>
       </c>
       <c r="AF11">
-        <v>0.2496960767930983</v>
+        <v>0.2546829520902236</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,97 +1493,97 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4920378988480286</v>
+        <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301603</v>
+        <v>0.4047685500301601</v>
       </c>
       <c r="D12">
-        <v>0.344247730587205</v>
+        <v>0.344481153761636</v>
       </c>
       <c r="E12">
-        <v>0.3007290436623569</v>
+        <v>0.3013248618802313</v>
       </c>
       <c r="F12">
-        <v>0.2684506412138694</v>
+        <v>0.2694870951229056</v>
       </c>
       <c r="G12">
-        <v>0.2438551752577501</v>
+        <v>0.2453846634164101</v>
       </c>
       <c r="H12">
-        <v>0.2246626033210282</v>
+        <v>0.2267235615974794</v>
       </c>
       <c r="I12">
-        <v>0.2093635514765816</v>
+        <v>0.2119862283546451</v>
       </c>
       <c r="J12">
-        <v>0.1969305132468908</v>
+        <v>0.200139800792532</v>
       </c>
       <c r="K12">
-        <v>0.186646905862947</v>
+        <v>0.1904637300453717</v>
       </c>
       <c r="L12">
-        <v>0.1780024199623216</v>
+        <v>0.1824444281233452</v>
       </c>
       <c r="M12">
-        <v>0.1706269845623682</v>
+        <v>0.1757088993230079</v>
       </c>
       <c r="N12">
-        <v>0.1642479474218012</v>
+        <v>0.1699817729541476</v>
       </c>
       <c r="O12">
-        <v>0.1586616197295849</v>
+        <v>0.1650567926495995</v>
       </c>
       <c r="P12">
-        <v>0.1537139453526785</v>
+        <v>0.1607774738300611</v>
       </c>
       <c r="Q12">
-        <v>0.1492871074793956</v>
+        <v>0.1570237168045517</v>
       </c>
       <c r="R12">
-        <v>0.1452900848908068</v>
+        <v>0.1537023747529639</v>
       </c>
       <c r="S12">
-        <v>0.1416518890158316</v>
+        <v>0.1507405014355357</v>
       </c>
       <c r="T12">
-        <v>0.1383166541581971</v>
+        <v>0.1480804483230847</v>
       </c>
       <c r="U12">
-        <v>0.1352400301335696</v>
+        <v>0.1456762596232616</v>
       </c>
       <c r="V12">
-        <v>0.1323865039069323</v>
+        <v>0.1434909920160858</v>
       </c>
       <c r="W12">
-        <v>0.1297273926775528</v>
+        <v>0.1414947022221644</v>
       </c>
       <c r="X12">
-        <v>0.1272393279533483</v>
+        <v>0.1396629227761812</v>
       </c>
       <c r="Y12">
-        <v>0.1249031023548773</v>
+        <v>0.1379754985702109</v>
       </c>
       <c r="Z12">
-        <v>0.1227027868092296</v>
+        <v>0.1364156925643611</v>
       </c>
       <c r="AA12">
-        <v>0.1206250508871877</v>
+        <v>0.1349694940346351</v>
       </c>
       <c r="AB12">
-        <v>0.1186586368109269</v>
+        <v>0.1336250803743452</v>
       </c>
       <c r="AC12">
-        <v>0.1167939504087188</v>
+        <v>0.1323723960949209</v>
       </c>
       <c r="AD12">
-        <v>0.1150227415425565</v>
+        <v>0.1312028218165043</v>
       </c>
       <c r="AE12">
-        <v>0.1133378533134232</v>
+        <v>0.1301089127299366</v>
       </c>
       <c r="AF12">
-        <v>0.1117330243618757</v>
+        <v>0.1290841909543337</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5528235542392859</v>
+        <v>0.5528235542392854</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231908</v>
+        <v>0.4784334037231907</v>
       </c>
       <c r="D13">
-        <v>0.4136703161714264</v>
+        <v>0.4151246167494071</v>
       </c>
       <c r="E13">
-        <v>0.3577290446240827</v>
+        <v>0.3614137410595477</v>
       </c>
       <c r="F13">
-        <v>0.3096596543499895</v>
+        <v>0.3158996523360048</v>
       </c>
       <c r="G13">
-        <v>0.268488193227878</v>
+        <v>0.2773218632796133</v>
       </c>
       <c r="H13">
-        <v>0.2332859532806491</v>
+        <v>0.2445803047380425</v>
       </c>
       <c r="I13">
-        <v>0.2032049684119698</v>
+        <v>0.2167336337910823</v>
       </c>
       <c r="J13">
-        <v>0.1774923636616931</v>
+        <v>0.1929866926347497</v>
       </c>
       <c r="K13">
-        <v>0.1554921450857041</v>
+        <v>0.1726734359582618</v>
       </c>
       <c r="L13">
-        <v>0.1366400483133773</v>
+        <v>0.1552388888790019</v>
       </c>
       <c r="M13">
-        <v>0.1204549853567518</v>
+        <v>0.1402220005554995</v>
       </c>
       <c r="N13">
-        <v>0.1065292314172656</v>
+        <v>0.1272402522035335</v>
       </c>
       <c r="O13">
-        <v>0.09451858343390904</v>
+        <v>0.1159763065988755</v>
       </c>
       <c r="P13">
-        <v>0.0841331472702458</v>
+        <v>0.1061666798749857</v>
       </c>
       <c r="Q13">
-        <v>0.07512905863283145</v>
+        <v>0.0975922671905662</v>
       </c>
       <c r="R13">
-        <v>0.06730123555895315</v>
+        <v>0.09007049428958182</v>
       </c>
       <c r="S13">
-        <v>0.06047714447296347</v>
+        <v>0.0834488562607086</v>
       </c>
       <c r="T13">
-        <v>0.05451150233627935</v>
+        <v>0.07759961878702627</v>
       </c>
       <c r="U13">
-        <v>0.04928181167974913</v>
+        <v>0.07241548201646994</v>
       </c>
       <c r="V13">
-        <v>0.04468461899259728</v>
+        <v>0.06780603524693742</v>
       </c>
       <c r="W13">
-        <v>0.04063239117661817</v>
+        <v>0.06369485794288555</v>
       </c>
       <c r="X13">
-        <v>0.03705091418671307</v>
+        <v>0.06001714733034152</v>
       </c>
       <c r="Y13">
-        <v>0.03387712941433037</v>
+        <v>0.05671777427785343</v>
       </c>
       <c r="Z13">
-        <v>0.03105733505279103</v>
+        <v>0.05374968730847216</v>
       </c>
       <c r="AA13">
-        <v>0.02854569067840087</v>
+        <v>0.05107259965270845</v>
       </c>
       <c r="AB13">
-        <v>0.02630297315585078</v>
+        <v>0.04865190661948789</v>
       </c>
       <c r="AC13">
-        <v>0.02429554058733373</v>
+        <v>0.04645779063449312</v>
       </c>
       <c r="AD13">
-        <v>0.02249446838782331</v>
+        <v>0.04446447945554424</v>
       </c>
       <c r="AE13">
-        <v>0.0208748277803845</v>
+        <v>0.04264962966351725</v>
       </c>
       <c r="AF13">
-        <v>0.01941508219594458</v>
+        <v>0.04099381283682536</v>
       </c>
     </row>
   </sheetData>
